--- a/RA_Files/Week_4_Moderation/Codebook_EDB.xlsx
+++ b/RA_Files/Week_4_Moderation/Codebook_EDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Dropbox (Brown)/Summer 2018/RA Files/Week_4_Moderation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43342B5-07A7-B241-9944-F01D11A06085}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF447365-6D90-ED45-BC61-1B0A82218D23}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>BF_A3</t>
   </si>
   <si>
-    <t>VP12501 </t>
-  </si>
-  <si>
     <t>Thorough Worker</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>&gt;= 1 = 1</t>
+  </si>
+  <si>
+    <t>VP12501</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,10 +952,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
       </c>
       <c r="D7">
         <v>2005</v>
@@ -967,10 +967,10 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
         <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
       </c>
       <c r="D8">
         <v>2005</v>
@@ -999,10 +999,10 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
         <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
       </c>
       <c r="D9">
         <v>2005</v>
@@ -1037,10 +1037,10 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
         <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
       </c>
       <c r="D10">
         <v>2005</v>
@@ -1069,10 +1069,10 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
         <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
       </c>
       <c r="D11">
         <v>2005</v>
@@ -1101,10 +1101,10 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
         <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
       </c>
       <c r="D12">
         <v>2005</v>
@@ -1133,10 +1133,10 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
         <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
       </c>
       <c r="D13">
         <v>2005</v>
@@ -1171,10 +1171,10 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
         <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>71</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
       </c>
       <c r="D14">
         <v>2005</v>
@@ -1209,10 +1209,10 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
         <v>74</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
       </c>
       <c r="D15">
         <v>2005</v>
@@ -1247,10 +1247,10 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
         <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
         <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
       </c>
       <c r="D16">
         <v>2005</v>
@@ -1279,10 +1279,10 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
         <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
       </c>
       <c r="D17">
         <v>2005</v>
@@ -1311,10 +1311,10 @@
         <v>32</v>
       </c>
       <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
         <v>86</v>
-      </c>
-      <c r="I17" t="s">
-        <v>87</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
         <v>88</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
       </c>
       <c r="D18">
         <v>2005</v>
@@ -1343,10 +1343,10 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
         <v>90</v>
-      </c>
-      <c r="I18" t="s">
-        <v>91</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
       </c>
       <c r="D19">
         <v>2005</v>
@@ -1372,16 +1372,16 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
         <v>94</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>95</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>96</v>
-      </c>
-      <c r="I19" t="s">
-        <v>97</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1393,15 +1393,15 @@
         <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
         <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
       </c>
       <c r="D20">
         <v>2005</v>
@@ -1410,16 +1410,16 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>102</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1431,45 +1431,45 @@
         <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
         <v>103</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21">
+        <v>2005</v>
+      </c>
+      <c r="E21" t="s">
         <v>104</v>
       </c>
-      <c r="D21">
-        <v>2005</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>105</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>106</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>107</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>108</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" t="s">
         <v>109</v>
-      </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/RA_Files/Week_4_Moderation/Codebook_EDB.xlsx
+++ b/RA_Files/Week_4_Moderation/Codebook_EDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Dropbox (Brown)/Summer 2018/RA Files/Week_4_Moderation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Documents/GitHub/R-tutorials/RA_Files/Week_4_Moderation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF447365-6D90-ED45-BC61-1B0A82218D23}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E8DC7-B728-8642-8B13-EA18CEE26FDF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
+    <workbookView xWindow="5560" yWindow="1240" windowWidth="28040" windowHeight="17440" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +804,7 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -839,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -871,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K4" t="s">
         <v>35</v>
@@ -909,7 +909,7 @@
         <v>39</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
@@ -941,7 +941,7 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
@@ -973,7 +973,7 @@
         <v>46</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>35</v>
@@ -1005,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
@@ -1043,7 +1043,7 @@
         <v>54</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -1075,7 +1075,7 @@
         <v>58</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>35</v>
@@ -1107,7 +1107,7 @@
         <v>62</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>35</v>
@@ -1139,7 +1139,7 @@
         <v>66</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
@@ -1177,7 +1177,7 @@
         <v>70</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
@@ -1215,7 +1215,7 @@
         <v>74</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
@@ -1253,7 +1253,7 @@
         <v>78</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
@@ -1285,7 +1285,7 @@
         <v>82</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>35</v>
@@ -1317,7 +1317,7 @@
         <v>86</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>35</v>
@@ -1349,7 +1349,7 @@
         <v>90</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
         <v>35</v>
@@ -1384,7 +1384,7 @@
         <v>96</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>23</v>
@@ -1422,7 +1422,7 @@
         <v>101</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
         <v>23</v>
@@ -1457,7 +1457,7 @@
         <v>107</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>108</v>

--- a/RA_Files/Week_4_Moderation/Codebook_EDB.xlsx
+++ b/RA_Files/Week_4_Moderation/Codebook_EDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Documents/GitHub/R-tutorials/RA_Files/Week_4_Moderation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Dropbox (Brown)/Summer 2018/RA Files/Week_4_Moderation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E8DC7-B728-8642-8B13-EA18CEE26FDF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF447365-6D90-ED45-BC61-1B0A82218D23}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1240" windowWidth="28040" windowHeight="17440" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +804,7 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -839,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -871,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>35</v>
@@ -909,7 +909,7 @@
         <v>39</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
@@ -941,7 +941,7 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
@@ -973,7 +973,7 @@
         <v>46</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>35</v>
@@ -1005,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
@@ -1043,7 +1043,7 @@
         <v>54</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -1075,7 +1075,7 @@
         <v>58</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>35</v>
@@ -1107,7 +1107,7 @@
         <v>62</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>35</v>
@@ -1139,7 +1139,7 @@
         <v>66</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
@@ -1177,7 +1177,7 @@
         <v>70</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
@@ -1215,7 +1215,7 @@
         <v>74</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
@@ -1253,7 +1253,7 @@
         <v>78</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
@@ -1285,7 +1285,7 @@
         <v>82</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>35</v>
@@ -1317,7 +1317,7 @@
         <v>86</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>35</v>
@@ -1349,7 +1349,7 @@
         <v>90</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>35</v>
@@ -1384,7 +1384,7 @@
         <v>96</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>23</v>
@@ -1422,7 +1422,7 @@
         <v>101</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>23</v>
@@ -1457,7 +1457,7 @@
         <v>107</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>108</v>

--- a/RA_Files/Week_4_Moderation/Codebook_EDB.xlsx
+++ b/RA_Files/Week_4_Moderation/Codebook_EDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Dropbox (Brown)/Summer 2018/RA Files/Week_4_Moderation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Documents/GitHub/R-tutorials/RA_Files/Week_4_Moderation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF447365-6D90-ED45-BC61-1B0A82218D23}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D10421-98F6-6347-A0E2-63B22192CC93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
   </bookViews>
@@ -333,24 +333,12 @@
     <t>Dem_Sex</t>
   </si>
   <si>
-    <t>vp13111</t>
-  </si>
-  <si>
-    <t>Other Worries</t>
-  </si>
-  <si>
     <t>Psychological</t>
   </si>
   <si>
     <t>Psych</t>
   </si>
   <si>
-    <t>OthWorr</t>
-  </si>
-  <si>
-    <t>Psych_OthWorr</t>
-  </si>
-  <si>
     <t>match</t>
   </si>
   <si>
@@ -358,6 +346,18 @@
   </si>
   <si>
     <t>VP12501</t>
+  </si>
+  <si>
+    <t>vp154</t>
+  </si>
+  <si>
+    <t>Satisfaction with life at present</t>
+  </si>
+  <si>
+    <t>LifeSat</t>
+  </si>
+  <si>
+    <t>Psych_LifeSat</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -1436,31 +1436,31 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21">
+        <v>2005</v>
+      </c>
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
+      <c r="G21" t="s">
         <v>103</v>
       </c>
-      <c r="D21">
-        <v>2005</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>104</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>108</v>
       </c>
       <c r="L21" t="s">
         <v>24</v>
@@ -1469,7 +1469,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
